--- a/Code/PublicManager/PublicManager/Templetes/moneyImport.xlsx
+++ b/Code/PublicManager/PublicManager/Templetes/moneyImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="8460" windowHeight="3825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="8460" windowHeight="3825"/>
   </bookViews>
   <sheets>
     <sheet name="项目经费使用情况" sheetId="1" r:id="rId1"/>
@@ -718,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,7 +731,7 @@
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -744,232 +744,134 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -979,10 +881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1034,46 +936,6 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/PublicManager/PublicManager/Templetes/moneyImport.xlsx
+++ b/Code/PublicManager/PublicManager/Templetes/moneyImport.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="8460" windowHeight="3825"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="8460" windowHeight="3825" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="项目经费使用情况" sheetId="1" r:id="rId1"/>
-    <sheet name="课题经费拨付与支出情况" sheetId="2" r:id="rId2"/>
+    <sheet name="项目基本情况" sheetId="5" r:id="rId1"/>
+    <sheet name="项目办公室组成" sheetId="4" r:id="rId2"/>
+    <sheet name="项目完成情况" sheetId="3" r:id="rId3"/>
+    <sheet name="项目经费使用情况" sheetId="1" r:id="rId4"/>
+    <sheet name="课题经费拨付与支出情况" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>科目名称</t>
   </si>
@@ -35,78 +38,6 @@
     <t>1.设备费</t>
   </si>
   <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）设备购置费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）设备试制费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）其他</t>
-    </r>
-  </si>
-  <si>
     <t>2.材料费</t>
   </si>
   <si>
@@ -116,111 +47,6 @@
     <t>4.燃料动力费</t>
   </si>
   <si>
-    <r>
-      <t>5.会议</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>差旅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际合作与交流费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.出版</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文献</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息传播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>知识产权事务费</t>
-    </r>
-  </si>
-  <si>
     <t>7.劳务费</t>
   </si>
   <si>
@@ -233,30 +59,6 @@
     <t>（二）间接费用</t>
   </si>
   <si>
-    <r>
-      <t>10.管理费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>科研绩效支出</t>
-    </r>
-  </si>
-  <si>
     <t>合  计</t>
   </si>
   <si>
@@ -264,37 +66,122 @@
   </si>
   <si>
     <t>课题负责单位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>课题合同总价款</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>课题应拨经费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>课题经费拨付时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>课题已拨经费</t>
   </si>
   <si>
     <t>课题支出经费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>课题应拨未拨经费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目牵头单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总负责人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总经费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目到位经费</t>
+  </si>
+  <si>
+    <t>项目办公室职务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>职务/职称</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>合同约定要求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成工作总体评价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重大事项或重大调整情况及主要原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段成果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核指标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）设备购置费</t>
+  </si>
+  <si>
+    <t>（2）设备试制费</t>
+  </si>
+  <si>
+    <t>（3）其他</t>
+  </si>
+  <si>
+    <t>5.会议/差旅/国际合作与交流费</t>
+  </si>
+  <si>
+    <t>6.出版/文献/信息传播/知识产权事务费</t>
+  </si>
+  <si>
+    <t>10.管理费/科研绩效支出</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,26 +196,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="楷体_GB2312"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="仿宋_GB2312"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -360,6 +227,40 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -384,7 +285,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,29 +293,50 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -718,10 +640,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"主任,成员"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
+      <formula1>"超额完成,完成,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,198 +828,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -937,7 +1033,7 @@
       <c r="H2" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Code/PublicManager/PublicManager/Templetes/moneyImport.xlsx
+++ b/Code/PublicManager/PublicManager/Templetes/moneyImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="8460" windowHeight="3825" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="8460" windowHeight="3825"/>
   </bookViews>
   <sheets>
     <sheet name="项目基本情况" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>科目名称</t>
   </si>
@@ -175,6 +175,22 @@
   </si>
   <si>
     <t>10.管理费/科研绩效支出</t>
+  </si>
+  <si>
+    <t>节点评估时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点评估意见</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点评估等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点评估专家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -285,7 +301,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -640,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,9 +672,12 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
@@ -671,8 +693,20 @@
       <c r="E1" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -979,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>

--- a/Code/PublicManager/PublicManager/Templetes/moneyImport.xlsx
+++ b/Code/PublicManager/PublicManager/Templetes/moneyImport.xlsx
@@ -659,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -705,13 +705,6 @@
       <c r="I1" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Code/PublicManager/PublicManager/Templetes/moneyImport.xlsx
+++ b/Code/PublicManager/PublicManager/Templetes/moneyImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="8460" windowHeight="3825"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="8460" windowHeight="3825" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="项目基本情况" sheetId="5" r:id="rId1"/>
@@ -301,7 +301,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +356,19 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -661,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -672,7 +685,8 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="7" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="14.75" customWidth="1"/>
   </cols>
@@ -693,7 +707,7 @@
       <c r="E1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="18" t="s">
@@ -709,6 +723,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1006,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1016,7 +1031,7 @@
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="23" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
@@ -1036,7 +1051,7 @@
       <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="13" t="s">
@@ -1054,7 +1069,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
